--- a/data-migration/xlsx_1900-/1918_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1918_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3A047-B6D0-4B44-82E9-12096A030565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F42A6-A5F3-4134-8C1F-E338C61E7F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9885" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1435">
   <si>
     <t>Sommer</t>
   </si>
@@ -4160,9 +4160,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4208,9 +4205,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>veraguth_o</t>
   </si>
   <si>
@@ -4341,6 +4335,9 @@
   </si>
   <si>
     <t>meyer_e</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -4691,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" topLeftCell="G169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4726,7 +4723,7 @@
         <v>1373</v>
       </c>
       <c r="I1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4749,10 +4746,10 @@
         <v>942</v>
       </c>
       <c r="H2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4778,7 +4775,7 @@
         <v>1257</v>
       </c>
       <c r="I3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4801,10 +4798,10 @@
         <v>944</v>
       </c>
       <c r="H4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I4" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4827,10 +4824,10 @@
         <v>945</v>
       </c>
       <c r="H5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I5" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4853,10 +4850,10 @@
         <v>946</v>
       </c>
       <c r="H6" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I6" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4882,7 +4879,7 @@
         <v>1374</v>
       </c>
       <c r="I7" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4908,10 +4905,10 @@
         <v>1258</v>
       </c>
       <c r="I8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J8" t="s">
         <v>1420</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4937,7 +4934,7 @@
         <v>1259</v>
       </c>
       <c r="I9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4963,10 +4960,10 @@
         <v>1258</v>
       </c>
       <c r="I10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J10" t="s">
         <v>1420</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4992,10 +4989,10 @@
         <v>1258</v>
       </c>
       <c r="I11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J11" t="s">
         <v>1420</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5018,10 +5015,10 @@
         <v>952</v>
       </c>
       <c r="H12" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I12" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5047,7 +5044,7 @@
         <v>1256</v>
       </c>
       <c r="I13" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5073,7 +5070,7 @@
         <v>1256</v>
       </c>
       <c r="I14" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5099,7 +5096,7 @@
         <v>1256</v>
       </c>
       <c r="I15" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,7 +5122,7 @@
         <v>1373</v>
       </c>
       <c r="I16" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5151,7 +5148,7 @@
         <v>1260</v>
       </c>
       <c r="I17" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5177,7 +5174,7 @@
         <v>1260</v>
       </c>
       <c r="I18" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
         <v>1374</v>
       </c>
       <c r="I19" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5229,7 +5226,7 @@
         <v>1260</v>
       </c>
       <c r="I20" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5255,7 +5252,7 @@
         <v>1257</v>
       </c>
       <c r="I21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5281,7 +5278,7 @@
         <v>1257</v>
       </c>
       <c r="I22" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5307,10 +5304,10 @@
         <v>1258</v>
       </c>
       <c r="I23" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J23" t="s">
         <v>1420</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5336,7 +5333,7 @@
         <v>1374</v>
       </c>
       <c r="I24" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5362,7 +5359,7 @@
         <v>1256</v>
       </c>
       <c r="I25" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5388,7 +5385,7 @@
         <v>1373</v>
       </c>
       <c r="I26" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5414,7 +5411,7 @@
         <v>1374</v>
       </c>
       <c r="I27" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5440,7 +5437,7 @@
         <v>1260</v>
       </c>
       <c r="I28" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5466,7 +5463,7 @@
         <v>1261</v>
       </c>
       <c r="I29" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5492,10 +5489,10 @@
         <v>1262</v>
       </c>
       <c r="I30" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J30" t="s">
         <v>1420</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5521,10 +5518,10 @@
         <v>1262</v>
       </c>
       <c r="I31" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J31" t="s">
         <v>1420</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5550,7 +5547,7 @@
         <v>1263</v>
       </c>
       <c r="I32" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5576,7 +5573,7 @@
         <v>1264</v>
       </c>
       <c r="I33" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5602,7 +5599,7 @@
         <v>1261</v>
       </c>
       <c r="I34" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5625,10 +5622,10 @@
         <v>974</v>
       </c>
       <c r="H35" t="s">
-        <v>1375</v>
+        <v>1434</v>
       </c>
       <c r="I35" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5651,10 +5648,10 @@
         <v>975</v>
       </c>
       <c r="H36" t="s">
-        <v>1375</v>
+        <v>1434</v>
       </c>
       <c r="I36" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5680,7 +5677,7 @@
         <v>1264</v>
       </c>
       <c r="I37" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5706,7 +5703,7 @@
         <v>1265</v>
       </c>
       <c r="I38" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5729,10 +5726,10 @@
         <v>978</v>
       </c>
       <c r="H39" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I39" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,7 +5755,7 @@
         <v>1265</v>
       </c>
       <c r="I40" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5784,7 +5781,7 @@
         <v>1266</v>
       </c>
       <c r="I41" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5810,7 +5807,7 @@
         <v>1265</v>
       </c>
       <c r="I42" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5833,10 +5830,10 @@
         <v>981</v>
       </c>
       <c r="H43" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I43" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5862,7 +5859,7 @@
         <v>1265</v>
       </c>
       <c r="I44" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5888,7 +5885,7 @@
         <v>1266</v>
       </c>
       <c r="I45" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5914,7 +5911,7 @@
         <v>1267</v>
       </c>
       <c r="I46" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5940,7 +5937,7 @@
         <v>1267</v>
       </c>
       <c r="I47" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5966,7 +5963,7 @@
         <v>1267</v>
       </c>
       <c r="I48" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5989,10 +5986,10 @@
         <v>986</v>
       </c>
       <c r="H49" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I49" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6018,7 +6015,7 @@
         <v>1268</v>
       </c>
       <c r="I50" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6044,7 +6041,7 @@
         <v>1268</v>
       </c>
       <c r="I51" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6070,7 +6067,7 @@
         <v>1268</v>
       </c>
       <c r="I52" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6096,7 +6093,7 @@
         <v>1269</v>
       </c>
       <c r="I53" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6122,7 +6119,7 @@
         <v>1269</v>
       </c>
       <c r="I54" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6145,10 +6142,10 @@
         <v>950</v>
       </c>
       <c r="H55" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I55" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6174,7 +6171,7 @@
         <v>1270</v>
       </c>
       <c r="I56" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6200,7 +6197,7 @@
         <v>1271</v>
       </c>
       <c r="I57" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6226,7 +6223,7 @@
         <v>1272</v>
       </c>
       <c r="I58" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6252,7 +6249,7 @@
         <v>1273</v>
       </c>
       <c r="I59" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6275,10 +6272,10 @@
         <v>996</v>
       </c>
       <c r="H60" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I60" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6301,10 +6298,10 @@
         <v>997</v>
       </c>
       <c r="H61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I61" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6327,10 +6324,10 @@
         <v>998</v>
       </c>
       <c r="H62" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I62" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6356,7 +6353,7 @@
         <v>1275</v>
       </c>
       <c r="I63" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6382,7 +6379,7 @@
         <v>1275</v>
       </c>
       <c r="I64" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6408,7 +6405,7 @@
         <v>1276</v>
       </c>
       <c r="I65" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6434,7 +6431,7 @@
         <v>1261</v>
       </c>
       <c r="I66" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6460,7 +6457,7 @@
         <v>1266</v>
       </c>
       <c r="I67" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6486,7 +6483,7 @@
         <v>1266</v>
       </c>
       <c r="I68" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6512,7 +6509,7 @@
         <v>1265</v>
       </c>
       <c r="I69" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6538,7 +6535,7 @@
         <v>1277</v>
       </c>
       <c r="I70" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6561,10 +6558,10 @@
         <v>962</v>
       </c>
       <c r="H71" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I71" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6587,10 +6584,10 @@
         <v>955</v>
       </c>
       <c r="H72" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I72" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6616,7 +6613,7 @@
         <v>1268</v>
       </c>
       <c r="I73" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6642,7 +6639,7 @@
         <v>1268</v>
       </c>
       <c r="I74" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6668,7 +6665,7 @@
         <v>1269</v>
       </c>
       <c r="I75" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6694,7 +6691,7 @@
         <v>1272</v>
       </c>
       <c r="I76" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6717,10 +6714,10 @@
         <v>1005</v>
       </c>
       <c r="H77" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="I77" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6743,16 +6740,16 @@
         <v>1006</v>
       </c>
       <c r="H78" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I78" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K78" t="s">
         <v>1276</v>
       </c>
       <c r="L78" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6778,7 +6775,7 @@
         <v>1275</v>
       </c>
       <c r="I79" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6804,7 +6801,7 @@
         <v>1275</v>
       </c>
       <c r="I80" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6830,7 +6827,7 @@
         <v>1275</v>
       </c>
       <c r="I81" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6856,7 +6853,7 @@
         <v>1278</v>
       </c>
       <c r="I82" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6885,7 +6882,7 @@
         <v>1279</v>
       </c>
       <c r="I83" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6914,7 +6911,7 @@
         <v>1279</v>
       </c>
       <c r="I84" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6940,19 +6937,19 @@
         <v>1279</v>
       </c>
       <c r="I85" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K85" t="s">
         <v>1280</v>
       </c>
       <c r="L85" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N85" t="s">
         <v>1421</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N85" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6978,19 +6975,19 @@
         <v>1279</v>
       </c>
       <c r="I86" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K86" t="s">
         <v>1280</v>
       </c>
       <c r="L86" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N86" t="s">
         <v>1421</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N86" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -7016,7 +7013,7 @@
         <v>1279</v>
       </c>
       <c r="I87" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -7045,7 +7042,7 @@
         <v>1280</v>
       </c>
       <c r="I88" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7071,7 +7068,7 @@
         <v>1280</v>
       </c>
       <c r="I89" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7094,10 +7091,10 @@
         <v>1018</v>
       </c>
       <c r="H90" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I90" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7120,10 +7117,10 @@
         <v>1019</v>
       </c>
       <c r="H91" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I91" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7146,10 +7143,10 @@
         <v>1015</v>
       </c>
       <c r="H92" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I92" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7175,7 +7172,7 @@
         <v>1281</v>
       </c>
       <c r="I93" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7198,10 +7195,10 @@
         <v>1021</v>
       </c>
       <c r="H94" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I94" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7224,10 +7221,10 @@
         <v>1022</v>
       </c>
       <c r="H95" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I95" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7250,10 +7247,10 @@
         <v>1023</v>
       </c>
       <c r="H96" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I96" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7276,10 +7273,10 @@
         <v>1024</v>
       </c>
       <c r="H97" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I97" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7305,7 +7302,7 @@
         <v>1282</v>
       </c>
       <c r="I98" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7331,7 +7328,7 @@
         <v>1282</v>
       </c>
       <c r="I99" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7357,7 +7354,7 @@
         <v>1282</v>
       </c>
       <c r="I100" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7383,7 +7380,7 @@
         <v>1282</v>
       </c>
       <c r="I101" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7409,7 +7406,7 @@
         <v>1282</v>
       </c>
       <c r="I102" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7432,10 +7429,10 @@
         <v>1029</v>
       </c>
       <c r="H103" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I103" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7458,16 +7455,16 @@
         <v>1030</v>
       </c>
       <c r="H104" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I104" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K104" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="L104" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7490,10 +7487,10 @@
         <v>1031</v>
       </c>
       <c r="H105" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I105" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7519,7 +7516,7 @@
         <v>1283</v>
       </c>
       <c r="I106" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7545,7 +7542,7 @@
         <v>1283</v>
       </c>
       <c r="I107" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7571,7 +7568,7 @@
         <v>1283</v>
       </c>
       <c r="I108" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7591,10 +7588,10 @@
         <v>585</v>
       </c>
       <c r="H109" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I109" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7617,10 +7614,10 @@
         <v>1035</v>
       </c>
       <c r="H110" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I110" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7643,10 +7640,10 @@
         <v>1036</v>
       </c>
       <c r="H111" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I111" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7669,10 +7666,10 @@
         <v>1037</v>
       </c>
       <c r="H112" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I112" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7698,7 +7695,7 @@
         <v>1284</v>
       </c>
       <c r="I113" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7724,7 +7721,7 @@
         <v>1284</v>
       </c>
       <c r="I114" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7750,7 +7747,7 @@
         <v>1284</v>
       </c>
       <c r="I115" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7776,7 +7773,7 @@
         <v>1285</v>
       </c>
       <c r="I116" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7802,7 +7799,7 @@
         <v>1285</v>
       </c>
       <c r="I117" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7825,10 +7822,10 @@
         <v>1002</v>
       </c>
       <c r="H118" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I118" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7854,7 +7851,7 @@
         <v>1286</v>
       </c>
       <c r="I119" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7877,16 +7874,16 @@
         <v>1040</v>
       </c>
       <c r="H120" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I120" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K120" t="s">
         <v>1287</v>
       </c>
       <c r="L120" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7912,13 +7909,13 @@
         <v>1287</v>
       </c>
       <c r="I121" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K121" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="L121" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7944,7 +7941,7 @@
         <v>1287</v>
       </c>
       <c r="I122" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7967,10 +7964,10 @@
         <v>1043</v>
       </c>
       <c r="H123" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I123" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7993,10 +7990,10 @@
         <v>1044</v>
       </c>
       <c r="H124" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I124" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8019,10 +8016,10 @@
         <v>1045</v>
       </c>
       <c r="H125" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I125" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8045,10 +8042,10 @@
         <v>1002</v>
       </c>
       <c r="H126" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I126" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8071,10 +8068,10 @@
         <v>1002</v>
       </c>
       <c r="H127" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="I127" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8100,7 +8097,7 @@
         <v>1288</v>
       </c>
       <c r="I128" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8126,7 +8123,7 @@
         <v>1288</v>
       </c>
       <c r="I129" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8149,10 +8146,10 @@
         <v>1047</v>
       </c>
       <c r="H130" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I130" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8175,10 +8172,10 @@
         <v>1048</v>
       </c>
       <c r="H131" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I131" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8201,10 +8198,10 @@
         <v>1049</v>
       </c>
       <c r="H132" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I132" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8230,7 +8227,7 @@
         <v>1289</v>
       </c>
       <c r="I133" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8256,7 +8253,7 @@
         <v>1289</v>
       </c>
       <c r="I134" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8282,7 +8279,7 @@
         <v>1289</v>
       </c>
       <c r="I135" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8308,7 +8305,7 @@
         <v>1290</v>
       </c>
       <c r="I136" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8334,7 +8331,7 @@
         <v>1290</v>
       </c>
       <c r="I137" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8360,7 +8357,7 @@
         <v>1291</v>
       </c>
       <c r="I138" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8383,10 +8380,10 @@
         <v>1055</v>
       </c>
       <c r="H139" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I139" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8409,10 +8406,10 @@
         <v>1056</v>
       </c>
       <c r="H140" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I140" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8438,7 +8435,7 @@
         <v>1293</v>
       </c>
       <c r="I141" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8464,7 +8461,7 @@
         <v>1294</v>
       </c>
       <c r="I142" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8487,10 +8484,10 @@
         <v>1058</v>
       </c>
       <c r="H143" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I143" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8516,7 +8513,7 @@
         <v>1295</v>
       </c>
       <c r="I144" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8542,7 +8539,7 @@
         <v>1295</v>
       </c>
       <c r="I145" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8568,7 +8565,7 @@
         <v>1296</v>
       </c>
       <c r="I146" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8594,7 +8591,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8620,13 +8617,13 @@
         <v>1297</v>
       </c>
       <c r="I148" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K148" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="L148" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8649,10 +8646,10 @@
         <v>1064</v>
       </c>
       <c r="H149" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I149" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8675,10 +8672,10 @@
         <v>974</v>
       </c>
       <c r="H150" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I150" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8701,10 +8698,10 @@
         <v>1065</v>
       </c>
       <c r="H151" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I151" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8727,10 +8724,10 @@
         <v>1002</v>
       </c>
       <c r="H152" t="s">
-        <v>1391</v>
+        <v>1428</v>
       </c>
       <c r="I152" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8753,10 +8750,10 @@
         <v>1002</v>
       </c>
       <c r="H153" t="s">
-        <v>1391</v>
+        <v>1428</v>
       </c>
       <c r="I153" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8782,7 +8779,7 @@
         <v>1298</v>
       </c>
       <c r="I154" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8808,7 +8805,7 @@
         <v>1298</v>
       </c>
       <c r="I155" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8831,10 +8828,10 @@
         <v>966</v>
       </c>
       <c r="H156" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I156" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8860,7 +8857,7 @@
         <v>1299</v>
       </c>
       <c r="I157" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8886,7 +8883,7 @@
         <v>1299</v>
       </c>
       <c r="I158" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8912,7 +8909,7 @@
         <v>1300</v>
       </c>
       <c r="I159" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8938,7 +8935,7 @@
         <v>1300</v>
       </c>
       <c r="I160" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8961,10 +8958,10 @@
         <v>967</v>
       </c>
       <c r="H161" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I161" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8987,10 +8984,10 @@
         <v>1069</v>
       </c>
       <c r="H162" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I162" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9013,10 +9010,10 @@
         <v>1002</v>
       </c>
       <c r="H163" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="I163" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -9039,10 +9036,10 @@
         <v>1002</v>
       </c>
       <c r="H164" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I164" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9065,10 +9062,10 @@
         <v>966</v>
       </c>
       <c r="H165" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I165" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9091,10 +9088,10 @@
         <v>1070</v>
       </c>
       <c r="H166" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I166" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9117,10 +9114,10 @@
         <v>1071</v>
       </c>
       <c r="H167" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I167" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9143,16 +9140,16 @@
         <v>1072</v>
       </c>
       <c r="H168" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I168" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K168" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="L168" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9175,10 +9172,10 @@
         <v>1073</v>
       </c>
       <c r="H169" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I169" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9201,10 +9198,10 @@
         <v>1074</v>
       </c>
       <c r="H170" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I170" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9227,10 +9224,10 @@
         <v>1075</v>
       </c>
       <c r="H171" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I171" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9253,10 +9250,10 @@
         <v>1076</v>
       </c>
       <c r="H172" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I172" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9282,10 +9279,10 @@
         <v>1301</v>
       </c>
       <c r="I173" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J173" t="s">
         <v>1420</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9311,10 +9308,10 @@
         <v>1301</v>
       </c>
       <c r="I174" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J174" t="s">
         <v>1420</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9340,10 +9337,10 @@
         <v>1301</v>
       </c>
       <c r="I175" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J175" t="s">
         <v>1420</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9369,10 +9366,10 @@
         <v>1301</v>
       </c>
       <c r="I176" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J176" t="s">
         <v>1420</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9398,7 +9395,7 @@
         <v>1302</v>
       </c>
       <c r="I177" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9424,7 +9421,7 @@
         <v>1302</v>
       </c>
       <c r="I178" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9447,10 +9444,10 @@
         <v>992</v>
       </c>
       <c r="H179" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I179" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9473,10 +9470,10 @@
         <v>1081</v>
       </c>
       <c r="H180" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I180" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9499,10 +9496,10 @@
         <v>1082</v>
       </c>
       <c r="H181" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I181" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9528,7 +9525,7 @@
         <v>1303</v>
       </c>
       <c r="I182" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9554,7 +9551,7 @@
         <v>1304</v>
       </c>
       <c r="I183" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9580,7 +9577,7 @@
         <v>1305</v>
       </c>
       <c r="I184" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9606,7 +9603,7 @@
         <v>1305</v>
       </c>
       <c r="I185" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9632,7 +9629,7 @@
         <v>1305</v>
       </c>
       <c r="I186" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9655,10 +9652,10 @@
         <v>1026</v>
       </c>
       <c r="H187" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I187" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9681,10 +9678,10 @@
         <v>1088</v>
       </c>
       <c r="H188" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I188" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9707,10 +9704,10 @@
         <v>1089</v>
       </c>
       <c r="H189" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I189" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9733,10 +9730,10 @@
         <v>1026</v>
       </c>
       <c r="H190" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I190" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9759,10 +9756,10 @@
         <v>1050</v>
       </c>
       <c r="H191" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I191" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9785,10 +9782,10 @@
         <v>1090</v>
       </c>
       <c r="H192" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I192" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9811,10 +9808,10 @@
         <v>1091</v>
       </c>
       <c r="H193" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I193" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9837,10 +9834,10 @@
         <v>1092</v>
       </c>
       <c r="H194" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I194" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9863,10 +9860,10 @@
         <v>1093</v>
       </c>
       <c r="H195" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="I195" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9892,7 +9889,7 @@
         <v>1306</v>
       </c>
       <c r="I196" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9918,7 +9915,7 @@
         <v>1306</v>
       </c>
       <c r="I197" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9944,7 +9941,7 @@
         <v>1306</v>
       </c>
       <c r="I198" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9970,7 +9967,7 @@
         <v>1306</v>
       </c>
       <c r="I199" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9996,7 +9993,7 @@
         <v>1306</v>
       </c>
       <c r="I200" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10022,7 +10019,7 @@
         <v>1306</v>
       </c>
       <c r="I201" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10048,7 +10045,7 @@
         <v>1307</v>
       </c>
       <c r="I202" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10074,7 +10071,7 @@
         <v>1307</v>
       </c>
       <c r="I203" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10100,7 +10097,7 @@
         <v>1307</v>
       </c>
       <c r="I204" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10126,7 +10123,7 @@
         <v>1308</v>
       </c>
       <c r="I205" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10152,7 +10149,7 @@
         <v>1308</v>
       </c>
       <c r="I206" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10178,7 +10175,7 @@
         <v>1308</v>
       </c>
       <c r="I207" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10204,7 +10201,7 @@
         <v>1308</v>
       </c>
       <c r="I208" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10230,7 +10227,7 @@
         <v>1308</v>
       </c>
       <c r="I209" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10256,7 +10253,7 @@
         <v>1308</v>
       </c>
       <c r="I210" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10282,7 +10279,7 @@
         <v>1308</v>
       </c>
       <c r="I211" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10308,7 +10305,7 @@
         <v>1309</v>
       </c>
       <c r="I212" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10334,7 +10331,7 @@
         <v>1309</v>
       </c>
       <c r="I213" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10360,7 +10357,7 @@
         <v>1309</v>
       </c>
       <c r="I214" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10386,7 +10383,7 @@
         <v>1310</v>
       </c>
       <c r="I215" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10412,7 +10409,7 @@
         <v>1310</v>
       </c>
       <c r="I216" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10438,7 +10435,7 @@
         <v>1310</v>
       </c>
       <c r="I217" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10464,7 +10461,7 @@
         <v>1310</v>
       </c>
       <c r="I218" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10487,10 +10484,10 @@
         <v>1113</v>
       </c>
       <c r="H219" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I219" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10513,10 +10510,10 @@
         <v>1114</v>
       </c>
       <c r="H220" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I220" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10542,7 +10539,7 @@
         <v>1311</v>
       </c>
       <c r="I221" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10568,7 +10565,7 @@
         <v>1311</v>
       </c>
       <c r="I222" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10594,7 +10591,7 @@
         <v>1311</v>
       </c>
       <c r="I223" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10620,7 +10617,7 @@
         <v>1311</v>
       </c>
       <c r="I224" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10646,7 +10643,7 @@
         <v>1311</v>
       </c>
       <c r="I225" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10672,7 +10669,7 @@
         <v>1311</v>
       </c>
       <c r="I226" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10698,7 +10695,7 @@
         <v>1312</v>
       </c>
       <c r="I227" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10721,13 +10718,13 @@
         <v>1023</v>
       </c>
       <c r="H228" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I228" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J228" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,13 +10747,13 @@
         <v>1120</v>
       </c>
       <c r="H229" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I229" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J229" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10782,10 +10779,10 @@
         <v>1313</v>
       </c>
       <c r="I230" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J230" t="s">
         <v>1420</v>
-      </c>
-      <c r="J230" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10811,7 +10808,7 @@
         <v>1314</v>
       </c>
       <c r="I231" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10837,7 +10834,7 @@
         <v>1314</v>
       </c>
       <c r="I232" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10863,7 +10860,7 @@
         <v>1315</v>
       </c>
       <c r="I233" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10889,10 +10886,10 @@
         <v>1313</v>
       </c>
       <c r="I234" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J234" t="s">
         <v>1420</v>
-      </c>
-      <c r="J234" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10915,10 +10912,10 @@
         <v>1124</v>
       </c>
       <c r="H235" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I235" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10941,10 +10938,10 @@
         <v>989</v>
       </c>
       <c r="H236" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I236" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10967,10 +10964,10 @@
         <v>981</v>
       </c>
       <c r="H237" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I237" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10993,10 +10990,10 @@
         <v>1125</v>
       </c>
       <c r="H238" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I238" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11022,7 +11019,7 @@
         <v>1316</v>
       </c>
       <c r="I239" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11048,7 +11045,7 @@
         <v>1316</v>
       </c>
       <c r="I240" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -11074,7 +11071,7 @@
         <v>1316</v>
       </c>
       <c r="I241" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11100,7 +11097,7 @@
         <v>1317</v>
       </c>
       <c r="I242" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11123,10 +11120,10 @@
         <v>992</v>
       </c>
       <c r="H243" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I243" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11152,7 +11149,7 @@
         <v>1317</v>
       </c>
       <c r="I244" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11178,7 +11175,7 @@
         <v>1314</v>
       </c>
       <c r="I245" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11204,7 +11201,7 @@
         <v>1315</v>
       </c>
       <c r="I246" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11230,10 +11227,10 @@
         <v>1313</v>
       </c>
       <c r="I247" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J247" t="s">
         <v>1420</v>
-      </c>
-      <c r="J247" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11256,10 +11253,10 @@
         <v>1130</v>
       </c>
       <c r="H248" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I248" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11282,10 +11279,10 @@
         <v>1076</v>
       </c>
       <c r="H249" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I249" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11308,10 +11305,10 @@
         <v>1131</v>
       </c>
       <c r="H250" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I250" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11337,10 +11334,10 @@
         <v>1313</v>
       </c>
       <c r="I251" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J251" t="s">
         <v>1420</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11366,10 +11363,10 @@
         <v>1313</v>
       </c>
       <c r="I252" t="s">
+        <v>1418</v>
+      </c>
+      <c r="J252" t="s">
         <v>1420</v>
-      </c>
-      <c r="J252" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11395,7 +11392,7 @@
         <v>1318</v>
       </c>
       <c r="I253" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11421,7 +11418,7 @@
         <v>1319</v>
       </c>
       <c r="I254" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11447,7 +11444,7 @@
         <v>1320</v>
       </c>
       <c r="I255" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11473,7 +11470,7 @@
         <v>1320</v>
       </c>
       <c r="I256" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11499,7 +11496,7 @@
         <v>1320</v>
       </c>
       <c r="I257" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11525,7 +11522,7 @@
         <v>1320</v>
       </c>
       <c r="I258" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11551,7 +11548,7 @@
         <v>1320</v>
       </c>
       <c r="I259" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11577,7 +11574,7 @@
         <v>1320</v>
       </c>
       <c r="I260" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11603,7 +11600,7 @@
         <v>1257</v>
       </c>
       <c r="I261" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11629,7 +11626,7 @@
         <v>1257</v>
       </c>
       <c r="I262" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11655,7 +11652,7 @@
         <v>1321</v>
       </c>
       <c r="I263" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11681,7 +11678,7 @@
         <v>1321</v>
       </c>
       <c r="I264" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11707,7 +11704,7 @@
         <v>1321</v>
       </c>
       <c r="I265" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11733,7 +11730,7 @@
         <v>1322</v>
       </c>
       <c r="I266" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11759,7 +11756,7 @@
         <v>1322</v>
       </c>
       <c r="I267" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11782,10 +11779,10 @@
         <v>1002</v>
       </c>
       <c r="H268" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I268" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11811,7 +11808,7 @@
         <v>1323</v>
       </c>
       <c r="I269" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11834,10 +11831,10 @@
         <v>1141</v>
       </c>
       <c r="H270" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I270" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11863,7 +11860,7 @@
         <v>1323</v>
       </c>
       <c r="I271" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11889,7 +11886,7 @@
         <v>1324</v>
       </c>
       <c r="I272" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11915,7 +11912,7 @@
         <v>1321</v>
       </c>
       <c r="I273" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11938,10 +11935,10 @@
         <v>966</v>
       </c>
       <c r="H274" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I274" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11964,10 +11961,10 @@
         <v>1142</v>
       </c>
       <c r="H275" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I275" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11993,7 +11990,7 @@
         <v>1324</v>
       </c>
       <c r="I276" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12019,7 +12016,7 @@
         <v>1323</v>
       </c>
       <c r="I277" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12045,7 +12042,7 @@
         <v>1321</v>
       </c>
       <c r="I278" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12071,7 +12068,7 @@
         <v>1274</v>
       </c>
       <c r="I279" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12097,7 +12094,7 @@
         <v>1274</v>
       </c>
       <c r="I280" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12123,7 +12120,7 @@
         <v>1274</v>
       </c>
       <c r="I281" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12149,7 +12146,7 @@
         <v>1274</v>
       </c>
       <c r="I282" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12172,10 +12169,10 @@
         <v>1145</v>
       </c>
       <c r="H283" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I283" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12201,7 +12198,7 @@
         <v>1325</v>
       </c>
       <c r="I284" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12227,7 +12224,7 @@
         <v>1326</v>
       </c>
       <c r="I285" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12253,7 +12250,7 @@
         <v>1326</v>
       </c>
       <c r="I286" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12279,7 +12276,7 @@
         <v>1326</v>
       </c>
       <c r="I287" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12302,10 +12299,10 @@
         <v>1147</v>
       </c>
       <c r="H288" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I288" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12331,7 +12328,7 @@
         <v>1327</v>
       </c>
       <c r="I289" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12357,7 +12354,7 @@
         <v>1328</v>
       </c>
       <c r="I290" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12380,10 +12377,10 @@
         <v>941</v>
       </c>
       <c r="H291" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I291" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12406,10 +12403,10 @@
         <v>1148</v>
       </c>
       <c r="H292" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I292" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12435,7 +12432,7 @@
         <v>1325</v>
       </c>
       <c r="I293" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12464,7 +12461,7 @@
         <v>1325</v>
       </c>
       <c r="I294" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12490,7 +12487,7 @@
         <v>1325</v>
       </c>
       <c r="I295" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12516,7 +12513,7 @@
         <v>1325</v>
       </c>
       <c r="I296" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12542,7 +12539,7 @@
         <v>1327</v>
       </c>
       <c r="I297" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12565,10 +12562,10 @@
         <v>1151</v>
       </c>
       <c r="H298" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I298" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12591,10 +12588,10 @@
         <v>1152</v>
       </c>
       <c r="H299" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I299" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12620,7 +12617,7 @@
         <v>1329</v>
       </c>
       <c r="I300" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12646,7 +12643,7 @@
         <v>1274</v>
       </c>
       <c r="I301" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12672,7 +12669,7 @@
         <v>1274</v>
       </c>
       <c r="I302" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12698,7 +12695,7 @@
         <v>1274</v>
       </c>
       <c r="I303" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12721,10 +12718,10 @@
         <v>1155</v>
       </c>
       <c r="H304" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I304" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -12750,7 +12747,7 @@
         <v>1325</v>
       </c>
       <c r="I305" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12776,10 +12773,10 @@
         <v>1330</v>
       </c>
       <c r="I306" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J306" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -12805,10 +12802,10 @@
         <v>1330</v>
       </c>
       <c r="I307" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J307" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -12837,10 +12834,10 @@
         <v>1330</v>
       </c>
       <c r="I308" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J308" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12869,10 +12866,10 @@
         <v>1330</v>
       </c>
       <c r="I309" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J309" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
@@ -12898,10 +12895,10 @@
         <v>1330</v>
       </c>
       <c r="I310" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J310" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
@@ -12927,10 +12924,10 @@
         <v>1330</v>
       </c>
       <c r="I311" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J311" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12956,7 +12953,7 @@
         <v>1331</v>
       </c>
       <c r="I312" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -12982,7 +12979,7 @@
         <v>1331</v>
       </c>
       <c r="I313" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
@@ -13008,13 +13005,13 @@
         <v>1335</v>
       </c>
       <c r="I314" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="K314" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="L314" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -13040,7 +13037,7 @@
         <v>1332</v>
       </c>
       <c r="I315" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
@@ -13066,7 +13063,7 @@
         <v>1333</v>
       </c>
       <c r="I316" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
@@ -13092,7 +13089,7 @@
         <v>1333</v>
       </c>
       <c r="I317" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -13118,7 +13115,7 @@
         <v>1333</v>
       </c>
       <c r="I318" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -13144,7 +13141,7 @@
         <v>1332</v>
       </c>
       <c r="I319" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -13170,7 +13167,7 @@
         <v>1332</v>
       </c>
       <c r="I320" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13196,7 +13193,7 @@
         <v>1334</v>
       </c>
       <c r="I321" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13222,7 +13219,7 @@
         <v>1331</v>
       </c>
       <c r="I322" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13248,7 +13245,7 @@
         <v>1334</v>
       </c>
       <c r="I323" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13274,7 +13271,7 @@
         <v>1335</v>
       </c>
       <c r="I324" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13300,7 +13297,7 @@
         <v>1331</v>
       </c>
       <c r="I325" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13326,7 +13323,7 @@
         <v>1333</v>
       </c>
       <c r="I326" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13349,10 +13346,10 @@
         <v>1169</v>
       </c>
       <c r="H327" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I327" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13375,10 +13372,10 @@
         <v>1170</v>
       </c>
       <c r="H328" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I328" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13401,10 +13398,10 @@
         <v>1171</v>
       </c>
       <c r="H329" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I329" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13427,10 +13424,10 @@
         <v>1162</v>
       </c>
       <c r="H330" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I330" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13453,10 +13450,10 @@
         <v>1151</v>
       </c>
       <c r="H331" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I331" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13482,7 +13479,7 @@
         <v>1336</v>
       </c>
       <c r="I332" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13508,7 +13505,7 @@
         <v>1337</v>
       </c>
       <c r="I333" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13534,7 +13531,7 @@
         <v>1336</v>
       </c>
       <c r="I334" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13557,10 +13554,10 @@
         <v>1173</v>
       </c>
       <c r="H335" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I335" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13583,10 +13580,10 @@
         <v>1174</v>
       </c>
       <c r="H336" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I336" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13612,10 +13609,10 @@
         <v>968</v>
       </c>
       <c r="H337" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I337" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13641,7 +13638,7 @@
         <v>1338</v>
       </c>
       <c r="I338" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13667,7 +13664,7 @@
         <v>1339</v>
       </c>
       <c r="I339" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13693,7 +13690,7 @@
         <v>1338</v>
       </c>
       <c r="I340" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13716,10 +13713,10 @@
         <v>1177</v>
       </c>
       <c r="H341" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I341" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13742,10 +13739,10 @@
         <v>964</v>
       </c>
       <c r="H342" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I342" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13771,7 +13768,7 @@
         <v>1336</v>
       </c>
       <c r="I343" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13794,10 +13791,10 @@
         <v>1006</v>
       </c>
       <c r="H344" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I344" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13823,7 +13820,7 @@
         <v>1339</v>
       </c>
       <c r="I345" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13849,7 +13846,7 @@
         <v>1292</v>
       </c>
       <c r="I346" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13875,7 +13872,7 @@
         <v>1340</v>
       </c>
       <c r="I347" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13901,7 +13898,7 @@
         <v>1324</v>
       </c>
       <c r="I348" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13927,7 +13924,7 @@
         <v>1324</v>
       </c>
       <c r="I349" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13953,7 +13950,7 @@
         <v>1324</v>
       </c>
       <c r="I350" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13976,10 +13973,10 @@
         <v>952</v>
       </c>
       <c r="H351" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I351" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -14002,10 +13999,10 @@
         <v>980</v>
       </c>
       <c r="H352" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I352" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -14031,7 +14028,7 @@
         <v>1292</v>
       </c>
       <c r="I353" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -14057,7 +14054,7 @@
         <v>1341</v>
       </c>
       <c r="I354" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -14083,7 +14080,7 @@
         <v>1340</v>
       </c>
       <c r="I355" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -14112,7 +14109,7 @@
         <v>1340</v>
       </c>
       <c r="I356" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -14138,7 +14135,7 @@
         <v>1342</v>
       </c>
       <c r="I357" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -14164,7 +14161,7 @@
         <v>1342</v>
       </c>
       <c r="I358" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14190,7 +14187,7 @@
         <v>1342</v>
       </c>
       <c r="I359" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14216,7 +14213,7 @@
         <v>1343</v>
       </c>
       <c r="I360" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14239,10 +14236,10 @@
         <v>966</v>
       </c>
       <c r="H361" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I361" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14265,10 +14262,10 @@
         <v>966</v>
       </c>
       <c r="H362" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I362" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14291,10 +14288,10 @@
         <v>1185</v>
       </c>
       <c r="H363" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I363" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14317,10 +14314,10 @@
         <v>1186</v>
       </c>
       <c r="H364" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I364" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14343,10 +14340,10 @@
         <v>1187</v>
       </c>
       <c r="H365" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I365" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14369,16 +14366,16 @@
         <v>1188</v>
       </c>
       <c r="H366" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I366" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K366" t="s">
         <v>1344</v>
       </c>
       <c r="L366" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14404,7 +14401,7 @@
         <v>1344</v>
       </c>
       <c r="I367" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14430,7 +14427,7 @@
         <v>1344</v>
       </c>
       <c r="I368" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14456,7 +14453,7 @@
         <v>1344</v>
       </c>
       <c r="I369" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14482,7 +14479,7 @@
         <v>1345</v>
       </c>
       <c r="I370" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14508,7 +14505,7 @@
         <v>1346</v>
       </c>
       <c r="I371" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14537,10 +14534,10 @@
         <v>1347</v>
       </c>
       <c r="I372" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J372" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14569,10 +14566,10 @@
         <v>1347</v>
       </c>
       <c r="I373" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J373" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14601,10 +14598,10 @@
         <v>1347</v>
       </c>
       <c r="I374" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J374" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14633,10 +14630,10 @@
         <v>1347</v>
       </c>
       <c r="I375" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J375" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14662,10 +14659,10 @@
         <v>1198</v>
       </c>
       <c r="H376" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I376" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14688,10 +14685,10 @@
         <v>1199</v>
       </c>
       <c r="H377" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I377" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14714,10 +14711,10 @@
         <v>1200</v>
       </c>
       <c r="H378" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I378" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14740,10 +14737,10 @@
         <v>1201</v>
       </c>
       <c r="H379" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I379" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14766,10 +14763,10 @@
         <v>1202</v>
       </c>
       <c r="H380" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I380" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14792,10 +14789,10 @@
         <v>1203</v>
       </c>
       <c r="H381" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I381" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14818,10 +14815,10 @@
         <v>1184</v>
       </c>
       <c r="H382" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I382" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14847,7 +14844,7 @@
         <v>1348</v>
       </c>
       <c r="I383" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14873,7 +14870,7 @@
         <v>1348</v>
       </c>
       <c r="I384" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14899,7 +14896,7 @@
         <v>1349</v>
       </c>
       <c r="I385" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14925,7 +14922,7 @@
         <v>1349</v>
       </c>
       <c r="I386" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14951,7 +14948,7 @@
         <v>1349</v>
       </c>
       <c r="I387" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14977,7 +14974,7 @@
         <v>1350</v>
       </c>
       <c r="I388" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15006,7 +15003,7 @@
         <v>1351</v>
       </c>
       <c r="I389" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15032,7 +15029,7 @@
         <v>1351</v>
       </c>
       <c r="I390" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15058,7 +15055,7 @@
         <v>1351</v>
       </c>
       <c r="I391" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15084,7 +15081,7 @@
         <v>1351</v>
       </c>
       <c r="I392" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15110,7 +15107,7 @@
         <v>1352</v>
       </c>
       <c r="I393" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15136,7 +15133,7 @@
         <v>1352</v>
       </c>
       <c r="I394" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15162,7 +15159,7 @@
         <v>1352</v>
       </c>
       <c r="I395" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15188,7 +15185,7 @@
         <v>1352</v>
       </c>
       <c r="I396" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15214,7 +15211,7 @@
         <v>1352</v>
       </c>
       <c r="I397" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15240,7 +15237,7 @@
         <v>1352</v>
       </c>
       <c r="I398" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15266,7 +15263,7 @@
         <v>1352</v>
       </c>
       <c r="I399" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15292,7 +15289,7 @@
         <v>1352</v>
       </c>
       <c r="I400" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15318,7 +15315,7 @@
         <v>1353</v>
       </c>
       <c r="I401" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15344,7 +15341,7 @@
         <v>1353</v>
       </c>
       <c r="I402" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15370,7 +15367,7 @@
         <v>1353</v>
       </c>
       <c r="I403" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15396,7 +15393,7 @@
         <v>1353</v>
       </c>
       <c r="I404" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15422,7 +15419,7 @@
         <v>1354</v>
       </c>
       <c r="I405" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15448,7 +15445,7 @@
         <v>1354</v>
       </c>
       <c r="I406" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15474,7 +15471,7 @@
         <v>1354</v>
       </c>
       <c r="I407" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15500,7 +15497,7 @@
         <v>1355</v>
       </c>
       <c r="I408" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15529,7 +15526,7 @@
         <v>1356</v>
       </c>
       <c r="I409" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15558,7 +15555,7 @@
         <v>1356</v>
       </c>
       <c r="I410" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15587,7 +15584,7 @@
         <v>1356</v>
       </c>
       <c r="I411" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15616,7 +15613,7 @@
         <v>1356</v>
       </c>
       <c r="I412" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15645,7 +15642,7 @@
         <v>1356</v>
       </c>
       <c r="I413" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15674,7 +15671,7 @@
         <v>1357</v>
       </c>
       <c r="I414" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15703,7 +15700,7 @@
         <v>1357</v>
       </c>
       <c r="I415" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15732,7 +15729,7 @@
         <v>1357</v>
       </c>
       <c r="I416" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15761,7 +15758,7 @@
         <v>1357</v>
       </c>
       <c r="I417" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15790,7 +15787,7 @@
         <v>1357</v>
       </c>
       <c r="I418" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15819,7 +15816,7 @@
         <v>1357</v>
       </c>
       <c r="I419" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15848,7 +15845,7 @@
         <v>1357</v>
       </c>
       <c r="I420" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15877,7 +15874,7 @@
         <v>1358</v>
       </c>
       <c r="I421" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15906,7 +15903,7 @@
         <v>1358</v>
       </c>
       <c r="I422" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15932,7 +15929,7 @@
         <v>1272</v>
       </c>
       <c r="I423" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15958,7 +15955,7 @@
         <v>1272</v>
       </c>
       <c r="I424" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15984,7 +15981,7 @@
         <v>1272</v>
       </c>
       <c r="I425" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -16010,7 +16007,7 @@
         <v>1272</v>
       </c>
       <c r="I426" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -16036,13 +16033,13 @@
         <v>1272</v>
       </c>
       <c r="I427" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K427" t="s">
         <v>1359</v>
       </c>
       <c r="L427" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16068,7 +16065,7 @@
         <v>1359</v>
       </c>
       <c r="I428" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16094,7 +16091,7 @@
         <v>1360</v>
       </c>
       <c r="I429" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16120,7 +16117,7 @@
         <v>1360</v>
       </c>
       <c r="I430" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16143,10 +16140,10 @@
         <v>1203</v>
       </c>
       <c r="H431" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I431" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16169,10 +16166,10 @@
         <v>1233</v>
       </c>
       <c r="H432" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I432" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16195,10 +16192,10 @@
         <v>1234</v>
       </c>
       <c r="H433" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I433" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16221,10 +16218,10 @@
         <v>1235</v>
       </c>
       <c r="H434" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I434" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16247,10 +16244,10 @@
         <v>1182</v>
       </c>
       <c r="H435" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I435" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16273,10 +16270,10 @@
         <v>1236</v>
       </c>
       <c r="H436" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I436" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16299,10 +16296,10 @@
         <v>1237</v>
       </c>
       <c r="H437" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I437" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16325,10 +16322,10 @@
         <v>1238</v>
       </c>
       <c r="H438" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I438" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16354,7 +16351,7 @@
         <v>1361</v>
       </c>
       <c r="I439" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16380,7 +16377,7 @@
         <v>1361</v>
       </c>
       <c r="I440" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16406,7 +16403,7 @@
         <v>1361</v>
       </c>
       <c r="I441" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16432,7 +16429,7 @@
         <v>1361</v>
       </c>
       <c r="I442" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16458,13 +16455,13 @@
         <v>1361</v>
       </c>
       <c r="I443" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K443" t="s">
         <v>1364</v>
       </c>
       <c r="L443" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16490,7 +16487,7 @@
         <v>1362</v>
       </c>
       <c r="I444" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16516,7 +16513,7 @@
         <v>1362</v>
       </c>
       <c r="I445" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16542,7 +16539,7 @@
         <v>1362</v>
       </c>
       <c r="I446" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16568,7 +16565,7 @@
         <v>1363</v>
       </c>
       <c r="I447" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16594,7 +16591,7 @@
         <v>1364</v>
       </c>
       <c r="I448" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16623,7 +16620,7 @@
         <v>1365</v>
       </c>
       <c r="I449" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16649,13 +16646,13 @@
         <v>1365</v>
       </c>
       <c r="I450" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K450" t="s">
         <v>1368</v>
       </c>
       <c r="L450" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16681,19 +16678,19 @@
         <v>1365</v>
       </c>
       <c r="I451" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K451" t="s">
         <v>1366</v>
       </c>
       <c r="L451" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="M451" t="s">
         <v>1368</v>
       </c>
       <c r="N451" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16719,7 +16716,7 @@
         <v>1365</v>
       </c>
       <c r="I452" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16745,7 +16742,7 @@
         <v>1366</v>
       </c>
       <c r="I453" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16771,7 +16768,7 @@
         <v>1366</v>
       </c>
       <c r="I454" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16797,7 +16794,7 @@
         <v>1366</v>
       </c>
       <c r="I455" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16823,7 +16820,7 @@
         <v>1366</v>
       </c>
       <c r="I456" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16849,7 +16846,7 @@
         <v>1367</v>
       </c>
       <c r="I457" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16875,7 +16872,7 @@
         <v>1368</v>
       </c>
       <c r="I458" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16898,10 +16895,10 @@
         <v>1203</v>
       </c>
       <c r="H459" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I459" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16927,7 +16924,7 @@
         <v>1369</v>
       </c>
       <c r="I460" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16953,7 +16950,7 @@
         <v>1369</v>
       </c>
       <c r="I461" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16979,7 +16976,7 @@
         <v>1369</v>
       </c>
       <c r="I462" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -17005,7 +17002,7 @@
         <v>1369</v>
       </c>
       <c r="I463" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -17031,7 +17028,7 @@
         <v>1369</v>
       </c>
       <c r="I464" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17057,7 +17054,7 @@
         <v>1369</v>
       </c>
       <c r="I465" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17083,7 +17080,7 @@
         <v>1370</v>
       </c>
       <c r="I466" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17109,7 +17106,7 @@
         <v>1371</v>
       </c>
       <c r="I467" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17135,7 +17132,7 @@
         <v>1372</v>
       </c>
       <c r="I468" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1918_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1918_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F42A6-A5F3-4134-8C1F-E338C61E7F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A8917-BA37-462A-A5F9-5D3F25FF7D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3824,9 +3824,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3890,9 +3887,6 @@
     <t>steiger_o</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>oswald_a</t>
   </si>
   <si>
@@ -4148,9 +4142,6 @@
     <t>brandenberger_c</t>
   </si>
   <si>
-    <t>egli_k</t>
-  </si>
-  <si>
     <t>bosshard_h</t>
   </si>
   <si>
@@ -4169,12 +4160,6 @@
     <t>bachmann_g</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -4199,9 +4184,6 @@
     <t>hoessly_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4283,9 +4265,6 @@
     <t>haene_j</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>hess_w</t>
   </si>
   <si>
@@ -4338,6 +4317,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>egli_k2</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4384,7 +4384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4688,11 +4688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="E153" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" customWidth="1"/>
@@ -4720,10 +4720,10 @@
         <v>941</v>
       </c>
       <c r="H1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I1" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4746,10 +4746,10 @@
         <v>942</v>
       </c>
       <c r="H2" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I2" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4775,7 +4775,7 @@
         <v>1257</v>
       </c>
       <c r="I3" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4798,10 +4798,10 @@
         <v>944</v>
       </c>
       <c r="H4" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I4" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4824,10 +4824,10 @@
         <v>945</v>
       </c>
       <c r="H5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I5" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4850,10 +4850,10 @@
         <v>946</v>
       </c>
       <c r="H6" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I6" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4876,10 +4876,10 @@
         <v>947</v>
       </c>
       <c r="H7" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I7" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4905,10 +4905,10 @@
         <v>1258</v>
       </c>
       <c r="I8" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J8" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
         <v>1259</v>
       </c>
       <c r="I9" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4960,10 +4960,10 @@
         <v>1258</v>
       </c>
       <c r="I10" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J10" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4989,10 +4989,10 @@
         <v>1258</v>
       </c>
       <c r="I11" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J11" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5015,10 +5015,10 @@
         <v>952</v>
       </c>
       <c r="H12" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="I12" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5044,7 +5044,7 @@
         <v>1256</v>
       </c>
       <c r="I13" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5070,7 +5070,7 @@
         <v>1256</v>
       </c>
       <c r="I14" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5096,7 +5096,7 @@
         <v>1256</v>
       </c>
       <c r="I15" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5119,10 +5119,10 @@
         <v>956</v>
       </c>
       <c r="H16" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I16" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5148,7 +5148,7 @@
         <v>1260</v>
       </c>
       <c r="I17" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5174,7 +5174,7 @@
         <v>1260</v>
       </c>
       <c r="I18" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5197,10 +5197,10 @@
         <v>959</v>
       </c>
       <c r="H19" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I19" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5226,7 +5226,7 @@
         <v>1260</v>
       </c>
       <c r="I20" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5252,7 +5252,7 @@
         <v>1257</v>
       </c>
       <c r="I21" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5278,7 +5278,7 @@
         <v>1257</v>
       </c>
       <c r="I22" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5304,10 +5304,10 @@
         <v>1258</v>
       </c>
       <c r="I23" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J23" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5330,10 +5330,10 @@
         <v>964</v>
       </c>
       <c r="H24" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I24" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>1256</v>
       </c>
       <c r="I25" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5382,10 +5382,10 @@
         <v>966</v>
       </c>
       <c r="H26" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I26" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5408,10 +5408,10 @@
         <v>963</v>
       </c>
       <c r="H27" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I27" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5437,7 +5437,7 @@
         <v>1260</v>
       </c>
       <c r="I28" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5463,7 +5463,7 @@
         <v>1261</v>
       </c>
       <c r="I29" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5489,10 +5489,10 @@
         <v>1262</v>
       </c>
       <c r="I30" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J30" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5518,10 +5518,10 @@
         <v>1262</v>
       </c>
       <c r="I31" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J31" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5544,10 +5544,10 @@
         <v>971</v>
       </c>
       <c r="H32" t="s">
-        <v>1263</v>
+        <v>1432</v>
       </c>
       <c r="I32" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5570,10 +5570,10 @@
         <v>972</v>
       </c>
       <c r="H33" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I33" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5599,7 +5599,7 @@
         <v>1261</v>
       </c>
       <c r="I34" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5622,10 +5622,10 @@
         <v>974</v>
       </c>
       <c r="H35" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="I35" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
         <v>975</v>
       </c>
       <c r="H36" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="I36" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5674,10 +5674,10 @@
         <v>976</v>
       </c>
       <c r="H37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I37" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5700,10 +5700,10 @@
         <v>977</v>
       </c>
       <c r="H38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I38" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5726,10 +5726,10 @@
         <v>978</v>
       </c>
       <c r="H39" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I39" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>979</v>
       </c>
       <c r="H40" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I40" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5778,10 +5778,10 @@
         <v>966</v>
       </c>
       <c r="H41" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I41" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5804,10 +5804,10 @@
         <v>980</v>
       </c>
       <c r="H42" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I42" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5830,10 +5830,10 @@
         <v>981</v>
       </c>
       <c r="H43" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I43" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5856,10 +5856,10 @@
         <v>982</v>
       </c>
       <c r="H44" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I44" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5882,10 +5882,10 @@
         <v>983</v>
       </c>
       <c r="H45" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I45" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5908,10 +5908,10 @@
         <v>984</v>
       </c>
       <c r="H46" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I46" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5934,10 +5934,10 @@
         <v>985</v>
       </c>
       <c r="H47" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I47" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5960,10 +5960,10 @@
         <v>980</v>
       </c>
       <c r="H48" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I48" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5986,10 +5986,10 @@
         <v>986</v>
       </c>
       <c r="H49" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I49" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6012,10 +6012,10 @@
         <v>987</v>
       </c>
       <c r="H50" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I50" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6038,10 +6038,10 @@
         <v>988</v>
       </c>
       <c r="H51" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I51" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6064,10 +6064,10 @@
         <v>989</v>
       </c>
       <c r="H52" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I52" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6090,10 +6090,10 @@
         <v>990</v>
       </c>
       <c r="H53" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I53" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6116,10 +6116,10 @@
         <v>991</v>
       </c>
       <c r="H54" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I54" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6142,10 +6142,10 @@
         <v>950</v>
       </c>
       <c r="H55" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="I55" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6168,10 +6168,10 @@
         <v>992</v>
       </c>
       <c r="H56" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I56" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6194,10 +6194,10 @@
         <v>993</v>
       </c>
       <c r="H57" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I57" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6220,10 +6220,10 @@
         <v>994</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I58" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6246,10 +6246,10 @@
         <v>995</v>
       </c>
       <c r="H59" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I59" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6272,10 +6272,10 @@
         <v>996</v>
       </c>
       <c r="H60" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I60" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6298,10 +6298,10 @@
         <v>997</v>
       </c>
       <c r="H61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I61" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6324,10 +6324,10 @@
         <v>998</v>
       </c>
       <c r="H62" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I62" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6350,10 +6350,10 @@
         <v>999</v>
       </c>
       <c r="H63" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I63" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6376,10 +6376,10 @@
         <v>1000</v>
       </c>
       <c r="H64" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I64" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6402,10 +6402,10 @@
         <v>975</v>
       </c>
       <c r="H65" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I65" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6431,7 +6431,7 @@
         <v>1261</v>
       </c>
       <c r="I66" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6454,10 +6454,10 @@
         <v>966</v>
       </c>
       <c r="H67" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I67" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6480,10 +6480,10 @@
         <v>1002</v>
       </c>
       <c r="H68" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I68" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6506,10 +6506,10 @@
         <v>1003</v>
       </c>
       <c r="H69" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I69" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6532,10 +6532,10 @@
         <v>964</v>
       </c>
       <c r="H70" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I70" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6558,10 +6558,10 @@
         <v>962</v>
       </c>
       <c r="H71" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="I71" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6584,10 +6584,10 @@
         <v>955</v>
       </c>
       <c r="H72" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I72" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6610,10 +6610,10 @@
         <v>955</v>
       </c>
       <c r="H73" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I73" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6636,10 +6636,10 @@
         <v>1001</v>
       </c>
       <c r="H74" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I74" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6662,10 +6662,10 @@
         <v>1004</v>
       </c>
       <c r="H75" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I75" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6688,10 +6688,10 @@
         <v>993</v>
       </c>
       <c r="H76" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I76" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6714,10 +6714,10 @@
         <v>1005</v>
       </c>
       <c r="H77" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="I77" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6740,16 +6740,16 @@
         <v>1006</v>
       </c>
       <c r="H78" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I78" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K78" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L78" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6772,10 +6772,10 @@
         <v>1007</v>
       </c>
       <c r="H79" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I79" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6798,10 +6798,10 @@
         <v>1008</v>
       </c>
       <c r="H80" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I80" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6824,10 +6824,10 @@
         <v>1009</v>
       </c>
       <c r="H81" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I81" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6850,10 +6850,10 @@
         <v>1010</v>
       </c>
       <c r="H82" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I82" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6879,10 +6879,10 @@
         <v>1011</v>
       </c>
       <c r="H83" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I83" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6908,10 +6908,10 @@
         <v>1012</v>
       </c>
       <c r="H84" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I84" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6934,22 +6934,22 @@
         <v>1013</v>
       </c>
       <c r="H85" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K85" t="s">
         <v>1279</v>
       </c>
-      <c r="I85" t="s">
-        <v>1418</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1280</v>
-      </c>
       <c r="L85" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="M85" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="N85" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6972,22 +6972,22 @@
         <v>1014</v>
       </c>
       <c r="H86" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K86" t="s">
         <v>1279</v>
       </c>
-      <c r="I86" t="s">
-        <v>1418</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1280</v>
-      </c>
       <c r="L86" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="M86" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="N86" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -7010,10 +7010,10 @@
         <v>1015</v>
       </c>
       <c r="H87" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I87" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -7039,10 +7039,10 @@
         <v>1016</v>
       </c>
       <c r="H88" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I88" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7065,10 +7065,10 @@
         <v>1017</v>
       </c>
       <c r="H89" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I89" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7091,10 +7091,10 @@
         <v>1018</v>
       </c>
       <c r="H90" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="I90" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7117,10 +7117,10 @@
         <v>1019</v>
       </c>
       <c r="H91" t="s">
-        <v>1379</v>
+        <v>1430</v>
       </c>
       <c r="I91" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7143,10 +7143,10 @@
         <v>1015</v>
       </c>
       <c r="H92" t="s">
-        <v>1379</v>
+        <v>1430</v>
       </c>
       <c r="I92" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7169,10 +7169,10 @@
         <v>1020</v>
       </c>
       <c r="H93" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I93" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7195,10 +7195,10 @@
         <v>1021</v>
       </c>
       <c r="H94" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I94" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7221,10 +7221,10 @@
         <v>1022</v>
       </c>
       <c r="H95" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I95" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7247,10 +7247,10 @@
         <v>1023</v>
       </c>
       <c r="H96" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I96" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7273,10 +7273,10 @@
         <v>1024</v>
       </c>
       <c r="H97" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="I97" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7299,10 +7299,10 @@
         <v>1025</v>
       </c>
       <c r="H98" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I98" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7325,10 +7325,10 @@
         <v>1026</v>
       </c>
       <c r="H99" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I99" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7351,10 +7351,10 @@
         <v>1027</v>
       </c>
       <c r="H100" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I100" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7377,10 +7377,10 @@
         <v>1028</v>
       </c>
       <c r="H101" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I101" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7403,10 +7403,10 @@
         <v>1015</v>
       </c>
       <c r="H102" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I102" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7429,10 +7429,10 @@
         <v>1029</v>
       </c>
       <c r="H103" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I103" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7455,16 +7455,16 @@
         <v>1030</v>
       </c>
       <c r="H104" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I104" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K104" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="L104" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7487,10 +7487,10 @@
         <v>1031</v>
       </c>
       <c r="H105" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="I105" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7513,10 +7513,10 @@
         <v>1032</v>
       </c>
       <c r="H106" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I106" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7539,10 +7539,10 @@
         <v>1033</v>
       </c>
       <c r="H107" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I107" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7565,10 +7565,10 @@
         <v>1034</v>
       </c>
       <c r="H108" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I108" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7588,10 +7588,10 @@
         <v>585</v>
       </c>
       <c r="H109" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="I109" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -7614,10 +7614,10 @@
         <v>1035</v>
       </c>
       <c r="H110" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I110" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7640,10 +7640,10 @@
         <v>1036</v>
       </c>
       <c r="H111" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I111" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7666,10 +7666,10 @@
         <v>1037</v>
       </c>
       <c r="H112" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="I112" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7692,10 +7692,10 @@
         <v>1038</v>
       </c>
       <c r="H113" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I113" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7718,10 +7718,10 @@
         <v>1039</v>
       </c>
       <c r="H114" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I114" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7744,10 +7744,10 @@
         <v>1020</v>
       </c>
       <c r="H115" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I115" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7770,10 +7770,10 @@
         <v>966</v>
       </c>
       <c r="H116" t="s">
-        <v>1285</v>
+        <v>1433</v>
       </c>
       <c r="I116" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7796,10 +7796,10 @@
         <v>1002</v>
       </c>
       <c r="H117" t="s">
-        <v>1285</v>
+        <v>1433</v>
       </c>
       <c r="I117" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7822,10 +7822,10 @@
         <v>1002</v>
       </c>
       <c r="H118" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I118" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7848,10 +7848,10 @@
         <v>1002</v>
       </c>
       <c r="H119" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I119" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7874,16 +7874,16 @@
         <v>1040</v>
       </c>
       <c r="H120" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="I120" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="K120" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L120" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7906,16 +7906,16 @@
         <v>1041</v>
       </c>
       <c r="H121" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I121" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="K121" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="L121" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7938,10 +7938,10 @@
         <v>1042</v>
       </c>
       <c r="H122" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I122" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7964,10 +7964,10 @@
         <v>1043</v>
       </c>
       <c r="H123" t="s">
-        <v>1379</v>
+        <v>1430</v>
       </c>
       <c r="I123" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7990,10 +7990,10 @@
         <v>1044</v>
       </c>
       <c r="H124" t="s">
-        <v>1379</v>
+        <v>1430</v>
       </c>
       <c r="I124" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -8016,10 +8016,10 @@
         <v>1045</v>
       </c>
       <c r="H125" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="I125" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -8042,10 +8042,10 @@
         <v>1002</v>
       </c>
       <c r="H126" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="I126" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -8068,10 +8068,10 @@
         <v>1002</v>
       </c>
       <c r="H127" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="I127" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -8094,10 +8094,10 @@
         <v>1002</v>
       </c>
       <c r="H128" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I128" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -8120,10 +8120,10 @@
         <v>1046</v>
       </c>
       <c r="H129" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I129" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -8146,10 +8146,10 @@
         <v>1047</v>
       </c>
       <c r="H130" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I130" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -8172,10 +8172,10 @@
         <v>1048</v>
       </c>
       <c r="H131" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I131" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -8198,10 +8198,10 @@
         <v>1049</v>
       </c>
       <c r="H132" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I132" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -8224,10 +8224,10 @@
         <v>1050</v>
       </c>
       <c r="H133" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I133" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -8250,10 +8250,10 @@
         <v>1051</v>
       </c>
       <c r="H134" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I134" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -8276,10 +8276,10 @@
         <v>1052</v>
       </c>
       <c r="H135" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I135" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8302,10 +8302,10 @@
         <v>1053</v>
       </c>
       <c r="H136" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I136" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8328,10 +8328,10 @@
         <v>1054</v>
       </c>
       <c r="H137" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I137" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8354,10 +8354,10 @@
         <v>966</v>
       </c>
       <c r="H138" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I138" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8380,10 +8380,10 @@
         <v>1055</v>
       </c>
       <c r="H139" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="I139" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8406,10 +8406,10 @@
         <v>1056</v>
       </c>
       <c r="H140" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="I140" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8432,10 +8432,10 @@
         <v>1057</v>
       </c>
       <c r="H141" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I141" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8458,10 +8458,10 @@
         <v>1002</v>
       </c>
       <c r="H142" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I142" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8484,10 +8484,10 @@
         <v>1058</v>
       </c>
       <c r="H143" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="I143" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8510,10 +8510,10 @@
         <v>1059</v>
       </c>
       <c r="H144" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I144" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8536,10 +8536,10 @@
         <v>1060</v>
       </c>
       <c r="H145" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I145" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8562,10 +8562,10 @@
         <v>1061</v>
       </c>
       <c r="H146" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I146" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8588,10 +8588,10 @@
         <v>1062</v>
       </c>
       <c r="H147" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I147" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8614,16 +8614,16 @@
         <v>1063</v>
       </c>
       <c r="H148" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I148" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K148" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="L148" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8646,10 +8646,10 @@
         <v>1064</v>
       </c>
       <c r="H149" t="s">
-        <v>1388</v>
+        <v>1429</v>
       </c>
       <c r="I149" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8672,10 +8672,10 @@
         <v>974</v>
       </c>
       <c r="H150" t="s">
-        <v>1388</v>
+        <v>1429</v>
       </c>
       <c r="I150" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8698,10 +8698,10 @@
         <v>1065</v>
       </c>
       <c r="H151" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="I151" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8724,10 +8724,10 @@
         <v>1002</v>
       </c>
       <c r="H152" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="I152" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8750,10 +8750,10 @@
         <v>1002</v>
       </c>
       <c r="H153" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="I153" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8776,10 +8776,10 @@
         <v>1066</v>
       </c>
       <c r="H154" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I154" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8802,10 +8802,10 @@
         <v>1067</v>
       </c>
       <c r="H155" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I155" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8828,10 +8828,10 @@
         <v>966</v>
       </c>
       <c r="H156" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="I156" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8854,10 +8854,10 @@
         <v>966</v>
       </c>
       <c r="H157" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I157" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8880,10 +8880,10 @@
         <v>1002</v>
       </c>
       <c r="H158" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I158" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8906,10 +8906,10 @@
         <v>1068</v>
       </c>
       <c r="H159" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I159" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8932,10 +8932,10 @@
         <v>966</v>
       </c>
       <c r="H160" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I160" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8958,10 +8958,10 @@
         <v>967</v>
       </c>
       <c r="H161" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="I161" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8984,10 +8984,10 @@
         <v>1069</v>
       </c>
       <c r="H162" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="I162" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -9010,10 +9010,10 @@
         <v>1002</v>
       </c>
       <c r="H163" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="I163" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -9036,10 +9036,10 @@
         <v>1002</v>
       </c>
       <c r="H164" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="I164" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9062,10 +9062,10 @@
         <v>966</v>
       </c>
       <c r="H165" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="I165" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9088,10 +9088,10 @@
         <v>1070</v>
       </c>
       <c r="H166" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="I166" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9114,10 +9114,10 @@
         <v>1071</v>
       </c>
       <c r="H167" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="I167" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9140,16 +9140,16 @@
         <v>1072</v>
       </c>
       <c r="H168" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="I168" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K168" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="L168" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9172,10 +9172,10 @@
         <v>1073</v>
       </c>
       <c r="H169" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="I169" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9198,10 +9198,10 @@
         <v>1074</v>
       </c>
       <c r="H170" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="I170" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9224,10 +9224,10 @@
         <v>1075</v>
       </c>
       <c r="H171" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="I171" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9250,10 +9250,10 @@
         <v>1076</v>
       </c>
       <c r="H172" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="I172" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9276,13 +9276,13 @@
         <v>1077</v>
       </c>
       <c r="H173" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I173" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J173" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9305,13 +9305,13 @@
         <v>1078</v>
       </c>
       <c r="H174" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I174" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J174" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9334,13 +9334,13 @@
         <v>1015</v>
       </c>
       <c r="H175" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I175" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J175" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9363,13 +9363,13 @@
         <v>1079</v>
       </c>
       <c r="H176" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I176" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J176" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9392,10 +9392,10 @@
         <v>966</v>
       </c>
       <c r="H177" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I177" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9418,10 +9418,10 @@
         <v>1080</v>
       </c>
       <c r="H178" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I178" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9444,10 +9444,10 @@
         <v>992</v>
       </c>
       <c r="H179" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="I179" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9470,10 +9470,10 @@
         <v>1081</v>
       </c>
       <c r="H180" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="I180" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9496,10 +9496,10 @@
         <v>1082</v>
       </c>
       <c r="H181" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="I181" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9522,10 +9522,10 @@
         <v>1083</v>
       </c>
       <c r="H182" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I182" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9548,10 +9548,10 @@
         <v>1084</v>
       </c>
       <c r="H183" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I183" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9574,10 +9574,10 @@
         <v>1085</v>
       </c>
       <c r="H184" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I184" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9600,10 +9600,10 @@
         <v>1086</v>
       </c>
       <c r="H185" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I185" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9626,10 +9626,10 @@
         <v>1087</v>
       </c>
       <c r="H186" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I186" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9652,10 +9652,10 @@
         <v>1026</v>
       </c>
       <c r="H187" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I187" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9678,10 +9678,10 @@
         <v>1088</v>
       </c>
       <c r="H188" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I188" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9704,10 +9704,10 @@
         <v>1089</v>
       </c>
       <c r="H189" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I189" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9730,10 +9730,10 @@
         <v>1026</v>
       </c>
       <c r="H190" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I190" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9756,10 +9756,10 @@
         <v>1050</v>
       </c>
       <c r="H191" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="I191" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9782,10 +9782,10 @@
         <v>1090</v>
       </c>
       <c r="H192" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I192" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9808,10 +9808,10 @@
         <v>1091</v>
       </c>
       <c r="H193" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I193" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9834,10 +9834,10 @@
         <v>1092</v>
       </c>
       <c r="H194" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I194" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9860,10 +9860,10 @@
         <v>1093</v>
       </c>
       <c r="H195" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="I195" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9886,10 +9886,10 @@
         <v>1094</v>
       </c>
       <c r="H196" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I196" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9912,10 +9912,10 @@
         <v>1095</v>
       </c>
       <c r="H197" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I197" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9938,10 +9938,10 @@
         <v>1096</v>
       </c>
       <c r="H198" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I198" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9964,10 +9964,10 @@
         <v>1097</v>
       </c>
       <c r="H199" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I199" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9990,10 +9990,10 @@
         <v>1098</v>
       </c>
       <c r="H200" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I200" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -10016,10 +10016,10 @@
         <v>1015</v>
       </c>
       <c r="H201" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I201" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -10042,10 +10042,10 @@
         <v>1099</v>
       </c>
       <c r="H202" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I202" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10068,10 +10068,10 @@
         <v>1100</v>
       </c>
       <c r="H203" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I203" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10094,10 +10094,10 @@
         <v>966</v>
       </c>
       <c r="H204" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I204" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10120,10 +10120,10 @@
         <v>1101</v>
       </c>
       <c r="H205" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I205" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10146,10 +10146,10 @@
         <v>1102</v>
       </c>
       <c r="H206" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I206" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10172,10 +10172,10 @@
         <v>1103</v>
       </c>
       <c r="H207" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I207" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10198,10 +10198,10 @@
         <v>1102</v>
       </c>
       <c r="H208" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I208" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10224,10 +10224,10 @@
         <v>1104</v>
       </c>
       <c r="H209" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I209" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10250,10 +10250,10 @@
         <v>1105</v>
       </c>
       <c r="H210" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I210" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10276,10 +10276,10 @@
         <v>1015</v>
       </c>
       <c r="H211" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I211" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10302,10 +10302,10 @@
         <v>1106</v>
       </c>
       <c r="H212" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I212" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10328,10 +10328,10 @@
         <v>1107</v>
       </c>
       <c r="H213" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I213" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10354,10 +10354,10 @@
         <v>1108</v>
       </c>
       <c r="H214" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I214" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10380,10 +10380,10 @@
         <v>1109</v>
       </c>
       <c r="H215" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I215" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10406,10 +10406,10 @@
         <v>1110</v>
       </c>
       <c r="H216" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I216" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10432,10 +10432,10 @@
         <v>1111</v>
       </c>
       <c r="H217" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I217" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10458,10 +10458,10 @@
         <v>1112</v>
       </c>
       <c r="H218" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I218" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10484,10 +10484,10 @@
         <v>1113</v>
       </c>
       <c r="H219" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="I219" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10510,10 +10510,10 @@
         <v>1114</v>
       </c>
       <c r="H220" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="I220" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10536,10 +10536,10 @@
         <v>1115</v>
       </c>
       <c r="H221" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I221" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10562,10 +10562,10 @@
         <v>1116</v>
       </c>
       <c r="H222" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I222" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10588,10 +10588,10 @@
         <v>1103</v>
       </c>
       <c r="H223" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I223" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10614,10 +10614,10 @@
         <v>1117</v>
       </c>
       <c r="H224" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I224" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10640,10 +10640,10 @@
         <v>1015</v>
       </c>
       <c r="H225" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I225" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10666,10 +10666,10 @@
         <v>1118</v>
       </c>
       <c r="H226" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I226" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10692,10 +10692,10 @@
         <v>1119</v>
       </c>
       <c r="H227" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I227" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10718,13 +10718,13 @@
         <v>1023</v>
       </c>
       <c r="H228" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="I228" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J228" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10747,13 +10747,13 @@
         <v>1120</v>
       </c>
       <c r="H229" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="I229" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J229" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10776,13 +10776,13 @@
         <v>1121</v>
       </c>
       <c r="H230" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I230" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J230" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10805,10 +10805,10 @@
         <v>1122</v>
       </c>
       <c r="H231" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I231" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10831,10 +10831,10 @@
         <v>1123</v>
       </c>
       <c r="H232" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I232" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10857,10 +10857,10 @@
         <v>966</v>
       </c>
       <c r="H233" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I233" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10883,13 +10883,13 @@
         <v>1071</v>
       </c>
       <c r="H234" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I234" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J234" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10912,10 +10912,10 @@
         <v>1124</v>
       </c>
       <c r="H235" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I235" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10938,10 +10938,10 @@
         <v>989</v>
       </c>
       <c r="H236" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I236" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10964,10 +10964,10 @@
         <v>981</v>
       </c>
       <c r="H237" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="I237" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10990,10 +10990,10 @@
         <v>1125</v>
       </c>
       <c r="H238" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="I238" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -11016,10 +11016,10 @@
         <v>1126</v>
       </c>
       <c r="H239" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I239" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11042,10 +11042,10 @@
         <v>1127</v>
       </c>
       <c r="H240" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I240" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -11068,10 +11068,10 @@
         <v>1128</v>
       </c>
       <c r="H241" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I241" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -11094,10 +11094,10 @@
         <v>1054</v>
       </c>
       <c r="H242" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I242" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -11120,10 +11120,10 @@
         <v>992</v>
       </c>
       <c r="H243" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="I243" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -11146,10 +11146,10 @@
         <v>1079</v>
       </c>
       <c r="H244" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I244" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -11172,10 +11172,10 @@
         <v>1129</v>
       </c>
       <c r="H245" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I245" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -11198,10 +11198,10 @@
         <v>1002</v>
       </c>
       <c r="H246" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I246" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -11224,13 +11224,13 @@
         <v>965</v>
       </c>
       <c r="H247" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I247" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J247" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -11253,10 +11253,10 @@
         <v>1130</v>
       </c>
       <c r="H248" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I248" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -11279,10 +11279,10 @@
         <v>1076</v>
       </c>
       <c r="H249" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I249" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11305,10 +11305,10 @@
         <v>1131</v>
       </c>
       <c r="H250" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I250" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11331,13 +11331,13 @@
         <v>1132</v>
       </c>
       <c r="H251" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I251" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J251" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11360,13 +11360,13 @@
         <v>1045</v>
       </c>
       <c r="H252" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I252" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J252" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11389,10 +11389,10 @@
         <v>980</v>
       </c>
       <c r="H253" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I253" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11415,10 +11415,10 @@
         <v>980</v>
       </c>
       <c r="H254" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I254" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11441,10 +11441,10 @@
         <v>992</v>
       </c>
       <c r="H255" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I255" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11467,10 +11467,10 @@
         <v>1133</v>
       </c>
       <c r="H256" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I256" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11493,10 +11493,10 @@
         <v>967</v>
       </c>
       <c r="H257" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I257" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11519,10 +11519,10 @@
         <v>1134</v>
       </c>
       <c r="H258" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I258" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11545,10 +11545,10 @@
         <v>1135</v>
       </c>
       <c r="H259" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I259" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11571,10 +11571,10 @@
         <v>1136</v>
       </c>
       <c r="H260" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I260" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11600,7 +11600,7 @@
         <v>1257</v>
       </c>
       <c r="I261" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11626,7 +11626,7 @@
         <v>1257</v>
       </c>
       <c r="I262" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11649,10 +11649,10 @@
         <v>1137</v>
       </c>
       <c r="H263" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I263" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11675,10 +11675,10 @@
         <v>1138</v>
       </c>
       <c r="H264" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I264" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11701,10 +11701,10 @@
         <v>1139</v>
       </c>
       <c r="H265" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I265" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11727,10 +11727,10 @@
         <v>1140</v>
       </c>
       <c r="H266" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I266" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11753,10 +11753,10 @@
         <v>1140</v>
       </c>
       <c r="H267" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I267" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11779,10 +11779,10 @@
         <v>1002</v>
       </c>
       <c r="H268" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="I268" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11805,10 +11805,10 @@
         <v>1002</v>
       </c>
       <c r="H269" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I269" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11831,10 +11831,10 @@
         <v>1141</v>
       </c>
       <c r="H270" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="I270" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11857,10 +11857,10 @@
         <v>966</v>
       </c>
       <c r="H271" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I271" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11883,10 +11883,10 @@
         <v>969</v>
       </c>
       <c r="H272" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I272" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11909,10 +11909,10 @@
         <v>959</v>
       </c>
       <c r="H273" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I273" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11935,10 +11935,10 @@
         <v>966</v>
       </c>
       <c r="H274" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="I274" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11961,10 +11961,10 @@
         <v>1142</v>
       </c>
       <c r="H275" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I275" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11987,10 +11987,10 @@
         <v>1056</v>
       </c>
       <c r="H276" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I276" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12013,10 +12013,10 @@
         <v>971</v>
       </c>
       <c r="H277" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I277" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12039,10 +12039,10 @@
         <v>942</v>
       </c>
       <c r="H278" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I278" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12065,10 +12065,10 @@
         <v>992</v>
       </c>
       <c r="H279" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I279" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12091,10 +12091,10 @@
         <v>952</v>
       </c>
       <c r="H280" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I280" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12117,10 +12117,10 @@
         <v>1143</v>
       </c>
       <c r="H281" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I281" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12143,10 +12143,10 @@
         <v>1144</v>
       </c>
       <c r="H282" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I282" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12169,10 +12169,10 @@
         <v>1145</v>
       </c>
       <c r="H283" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="I283" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12195,10 +12195,10 @@
         <v>1146</v>
       </c>
       <c r="H284" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I284" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12221,10 +12221,10 @@
         <v>1102</v>
       </c>
       <c r="H285" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I285" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12247,10 +12247,10 @@
         <v>974</v>
       </c>
       <c r="H286" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I286" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12273,10 +12273,10 @@
         <v>1007</v>
       </c>
       <c r="H287" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I287" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12299,10 +12299,10 @@
         <v>1147</v>
       </c>
       <c r="H288" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="I288" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12325,10 +12325,10 @@
         <v>1144</v>
       </c>
       <c r="H289" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I289" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12351,10 +12351,10 @@
         <v>1002</v>
       </c>
       <c r="H290" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I290" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12377,10 +12377,10 @@
         <v>941</v>
       </c>
       <c r="H291" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I291" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12403,10 +12403,10 @@
         <v>1148</v>
       </c>
       <c r="H292" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I292" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12429,10 +12429,10 @@
         <v>1149</v>
       </c>
       <c r="H293" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I293" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12458,10 +12458,10 @@
         <v>1150</v>
       </c>
       <c r="H294" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I294" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12484,10 +12484,10 @@
         <v>1133</v>
       </c>
       <c r="H295" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I295" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12510,10 +12510,10 @@
         <v>1042</v>
       </c>
       <c r="H296" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I296" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12536,10 +12536,10 @@
         <v>1081</v>
       </c>
       <c r="H297" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I297" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12562,10 +12562,10 @@
         <v>1151</v>
       </c>
       <c r="H298" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="I298" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12588,10 +12588,10 @@
         <v>1152</v>
       </c>
       <c r="H299" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="I299" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12614,10 +12614,10 @@
         <v>952</v>
       </c>
       <c r="H300" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I300" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12640,10 +12640,10 @@
         <v>996</v>
       </c>
       <c r="H301" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I301" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12666,10 +12666,10 @@
         <v>1153</v>
       </c>
       <c r="H302" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I302" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12692,10 +12692,10 @@
         <v>1154</v>
       </c>
       <c r="H303" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I303" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12718,10 +12718,10 @@
         <v>1155</v>
       </c>
       <c r="H304" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="I304" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -12744,10 +12744,10 @@
         <v>962</v>
       </c>
       <c r="H305" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I305" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12770,13 +12770,13 @@
         <v>1156</v>
       </c>
       <c r="H306" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I306" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J306" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -12799,13 +12799,13 @@
         <v>1125</v>
       </c>
       <c r="H307" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I307" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J307" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -12831,13 +12831,13 @@
         <v>1157</v>
       </c>
       <c r="H308" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I308" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J308" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12863,13 +12863,13 @@
         <v>1144</v>
       </c>
       <c r="H309" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I309" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J309" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
@@ -12892,13 +12892,13 @@
         <v>1158</v>
       </c>
       <c r="H310" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I310" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J310" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
@@ -12921,13 +12921,13 @@
         <v>1159</v>
       </c>
       <c r="H311" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I311" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="J311" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12950,10 +12950,10 @@
         <v>1160</v>
       </c>
       <c r="H312" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I312" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -12976,10 +12976,10 @@
         <v>1161</v>
       </c>
       <c r="H313" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I313" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
@@ -13002,16 +13002,16 @@
         <v>1162</v>
       </c>
       <c r="H314" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I314" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="K314" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="L314" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -13034,10 +13034,10 @@
         <v>1053</v>
       </c>
       <c r="H315" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I315" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
@@ -13060,10 +13060,10 @@
         <v>1163</v>
       </c>
       <c r="H316" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I316" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
@@ -13086,10 +13086,10 @@
         <v>1164</v>
       </c>
       <c r="H317" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I317" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -13112,10 +13112,10 @@
         <v>1165</v>
       </c>
       <c r="H318" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I318" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -13138,10 +13138,10 @@
         <v>960</v>
       </c>
       <c r="H319" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I319" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -13164,10 +13164,10 @@
         <v>1002</v>
       </c>
       <c r="H320" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I320" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13190,10 +13190,10 @@
         <v>1166</v>
       </c>
       <c r="H321" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I321" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13216,10 +13216,10 @@
         <v>1167</v>
       </c>
       <c r="H322" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I322" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13242,10 +13242,10 @@
         <v>1081</v>
       </c>
       <c r="H323" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I323" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13268,10 +13268,10 @@
         <v>1168</v>
       </c>
       <c r="H324" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I324" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13294,10 +13294,10 @@
         <v>962</v>
       </c>
       <c r="H325" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I325" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13320,10 +13320,10 @@
         <v>964</v>
       </c>
       <c r="H326" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I326" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13346,10 +13346,10 @@
         <v>1169</v>
       </c>
       <c r="H327" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I327" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13372,10 +13372,10 @@
         <v>1170</v>
       </c>
       <c r="H328" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I328" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13398,10 +13398,10 @@
         <v>1171</v>
       </c>
       <c r="H329" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I329" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13424,10 +13424,10 @@
         <v>1162</v>
       </c>
       <c r="H330" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="I330" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13450,10 +13450,10 @@
         <v>1151</v>
       </c>
       <c r="H331" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="I331" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13476,10 +13476,10 @@
         <v>1167</v>
       </c>
       <c r="H332" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I332" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13502,10 +13502,10 @@
         <v>966</v>
       </c>
       <c r="H333" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="I333" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13528,10 +13528,10 @@
         <v>1172</v>
       </c>
       <c r="H334" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I334" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13554,10 +13554,10 @@
         <v>1173</v>
       </c>
       <c r="H335" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I335" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13580,10 +13580,10 @@
         <v>1174</v>
       </c>
       <c r="H336" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I336" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13609,10 +13609,10 @@
         <v>968</v>
       </c>
       <c r="H337" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I337" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13635,10 +13635,10 @@
         <v>1175</v>
       </c>
       <c r="H338" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I338" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13661,10 +13661,10 @@
         <v>980</v>
       </c>
       <c r="H339" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I339" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13687,10 +13687,10 @@
         <v>1176</v>
       </c>
       <c r="H340" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I340" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13713,10 +13713,10 @@
         <v>1177</v>
       </c>
       <c r="H341" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I341" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13739,10 +13739,10 @@
         <v>964</v>
       </c>
       <c r="H342" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="I342" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13765,10 +13765,10 @@
         <v>1178</v>
       </c>
       <c r="H343" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I343" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13791,10 +13791,10 @@
         <v>1006</v>
       </c>
       <c r="H344" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="I344" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13817,10 +13817,10 @@
         <v>966</v>
       </c>
       <c r="H345" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I345" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13843,10 +13843,10 @@
         <v>966</v>
       </c>
       <c r="H346" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I346" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13869,10 +13869,10 @@
         <v>1092</v>
       </c>
       <c r="H347" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I347" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13895,10 +13895,10 @@
         <v>1179</v>
       </c>
       <c r="H348" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I348" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13921,10 +13921,10 @@
         <v>990</v>
       </c>
       <c r="H349" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I349" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13947,10 +13947,10 @@
         <v>1180</v>
       </c>
       <c r="H350" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I350" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13973,10 +13973,10 @@
         <v>952</v>
       </c>
       <c r="H351" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I351" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13999,10 +13999,10 @@
         <v>980</v>
       </c>
       <c r="H352" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I352" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -14025,10 +14025,10 @@
         <v>1162</v>
       </c>
       <c r="H353" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I353" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -14051,10 +14051,10 @@
         <v>960</v>
       </c>
       <c r="H354" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I354" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -14077,10 +14077,10 @@
         <v>964</v>
       </c>
       <c r="H355" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I355" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -14106,10 +14106,10 @@
         <v>1181</v>
       </c>
       <c r="H356" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I356" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -14132,10 +14132,10 @@
         <v>1002</v>
       </c>
       <c r="H357" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I357" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -14158,10 +14158,10 @@
         <v>1182</v>
       </c>
       <c r="H358" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I358" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -14184,10 +14184,10 @@
         <v>1183</v>
       </c>
       <c r="H359" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I359" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -14210,10 +14210,10 @@
         <v>1184</v>
       </c>
       <c r="H360" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I360" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -14236,10 +14236,10 @@
         <v>966</v>
       </c>
       <c r="H361" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="I361" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -14262,10 +14262,10 @@
         <v>966</v>
       </c>
       <c r="H362" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="I362" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -14288,10 +14288,10 @@
         <v>1185</v>
       </c>
       <c r="H363" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I363" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -14314,10 +14314,10 @@
         <v>1186</v>
       </c>
       <c r="H364" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I364" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -14340,10 +14340,10 @@
         <v>1187</v>
       </c>
       <c r="H365" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I365" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -14366,16 +14366,16 @@
         <v>1188</v>
       </c>
       <c r="H366" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="I366" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K366" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="L366" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -14398,10 +14398,10 @@
         <v>1189</v>
       </c>
       <c r="H367" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I367" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -14424,10 +14424,10 @@
         <v>1190</v>
       </c>
       <c r="H368" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I368" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14450,10 +14450,10 @@
         <v>1191</v>
       </c>
       <c r="H369" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I369" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14476,10 +14476,10 @@
         <v>1192</v>
       </c>
       <c r="H370" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I370" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14502,10 +14502,10 @@
         <v>1193</v>
       </c>
       <c r="H371" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="I371" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14531,13 +14531,13 @@
         <v>1194</v>
       </c>
       <c r="H372" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I372" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J372" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14563,13 +14563,13 @@
         <v>1195</v>
       </c>
       <c r="H373" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I373" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J373" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14595,13 +14595,13 @@
         <v>1196</v>
       </c>
       <c r="H374" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I374" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J374" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14627,13 +14627,13 @@
         <v>1197</v>
       </c>
       <c r="H375" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="I375" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="J375" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14659,10 +14659,10 @@
         <v>1198</v>
       </c>
       <c r="H376" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I376" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14685,10 +14685,10 @@
         <v>1199</v>
       </c>
       <c r="H377" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I377" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14711,10 +14711,10 @@
         <v>1200</v>
       </c>
       <c r="H378" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I378" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14737,10 +14737,10 @@
         <v>1201</v>
       </c>
       <c r="H379" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I379" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14763,10 +14763,10 @@
         <v>1202</v>
       </c>
       <c r="H380" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I380" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14789,10 +14789,10 @@
         <v>1203</v>
       </c>
       <c r="H381" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I381" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14815,10 +14815,10 @@
         <v>1184</v>
       </c>
       <c r="H382" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="I382" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14841,10 +14841,10 @@
         <v>1204</v>
       </c>
       <c r="H383" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I383" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14867,10 +14867,10 @@
         <v>1205</v>
       </c>
       <c r="H384" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I384" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14893,10 +14893,10 @@
         <v>1206</v>
       </c>
       <c r="H385" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I385" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14919,10 +14919,10 @@
         <v>1207</v>
       </c>
       <c r="H386" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I386" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14945,10 +14945,10 @@
         <v>1208</v>
       </c>
       <c r="H387" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I387" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14971,10 +14971,10 @@
         <v>1182</v>
       </c>
       <c r="H388" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I388" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -15000,10 +15000,10 @@
         <v>1209</v>
       </c>
       <c r="H389" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I389" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -15026,10 +15026,10 @@
         <v>1202</v>
       </c>
       <c r="H390" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I390" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -15052,10 +15052,10 @@
         <v>1202</v>
       </c>
       <c r="H391" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I391" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -15078,10 +15078,10 @@
         <v>1210</v>
       </c>
       <c r="H392" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I392" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15104,10 +15104,10 @@
         <v>1211</v>
       </c>
       <c r="H393" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I393" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15130,10 +15130,10 @@
         <v>1212</v>
       </c>
       <c r="H394" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I394" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15156,10 +15156,10 @@
         <v>1213</v>
       </c>
       <c r="H395" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I395" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15182,10 +15182,10 @@
         <v>1214</v>
       </c>
       <c r="H396" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I396" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15208,10 +15208,10 @@
         <v>1215</v>
       </c>
       <c r="H397" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I397" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15234,10 +15234,10 @@
         <v>1216</v>
       </c>
       <c r="H398" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I398" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15260,10 +15260,10 @@
         <v>1217</v>
       </c>
       <c r="H399" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I399" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15286,10 +15286,10 @@
         <v>1218</v>
       </c>
       <c r="H400" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="I400" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15312,10 +15312,10 @@
         <v>1219</v>
       </c>
       <c r="H401" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I401" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15338,10 +15338,10 @@
         <v>1188</v>
       </c>
       <c r="H402" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I402" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15364,10 +15364,10 @@
         <v>1220</v>
       </c>
       <c r="H403" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I403" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15390,10 +15390,10 @@
         <v>1221</v>
       </c>
       <c r="H404" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I404" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15416,10 +15416,10 @@
         <v>1203</v>
       </c>
       <c r="H405" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I405" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15442,10 +15442,10 @@
         <v>1203</v>
       </c>
       <c r="H406" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I406" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15468,10 +15468,10 @@
         <v>1182</v>
       </c>
       <c r="H407" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I407" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15494,10 +15494,10 @@
         <v>1203</v>
       </c>
       <c r="H408" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="I408" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15523,10 +15523,10 @@
         <v>1222</v>
       </c>
       <c r="H409" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I409" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15552,10 +15552,10 @@
         <v>1199</v>
       </c>
       <c r="H410" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I410" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15581,10 +15581,10 @@
         <v>1223</v>
       </c>
       <c r="H411" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I411" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15610,10 +15610,10 @@
         <v>1223</v>
       </c>
       <c r="H412" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I412" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15639,10 +15639,10 @@
         <v>1224</v>
       </c>
       <c r="H413" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I413" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15668,10 +15668,10 @@
         <v>1225</v>
       </c>
       <c r="H414" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I414" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15697,10 +15697,10 @@
         <v>1182</v>
       </c>
       <c r="H415" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I415" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15726,10 +15726,10 @@
         <v>1226</v>
       </c>
       <c r="H416" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I416" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
@@ -15755,10 +15755,10 @@
         <v>1227</v>
       </c>
       <c r="H417" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I417" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
@@ -15784,10 +15784,10 @@
         <v>1202</v>
       </c>
       <c r="H418" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I418" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
@@ -15813,10 +15813,10 @@
         <v>1184</v>
       </c>
       <c r="H419" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I419" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
@@ -15842,10 +15842,10 @@
         <v>1228</v>
       </c>
       <c r="H420" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="I420" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
@@ -15871,10 +15871,10 @@
         <v>1203</v>
       </c>
       <c r="H421" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I421" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
@@ -15900,10 +15900,10 @@
         <v>1203</v>
       </c>
       <c r="H422" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I422" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
@@ -15926,10 +15926,10 @@
         <v>1229</v>
       </c>
       <c r="H423" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I423" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
@@ -15952,10 +15952,10 @@
         <v>1230</v>
       </c>
       <c r="H424" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I424" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
@@ -15978,10 +15978,10 @@
         <v>1231</v>
       </c>
       <c r="H425" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I425" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
@@ -16004,10 +16004,10 @@
         <v>1232</v>
       </c>
       <c r="H426" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I426" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
@@ -16030,16 +16030,16 @@
         <v>1213</v>
       </c>
       <c r="H427" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I427" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K427" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="L427" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
@@ -16062,10 +16062,10 @@
         <v>1182</v>
       </c>
       <c r="H428" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="I428" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
@@ -16088,10 +16088,10 @@
         <v>1182</v>
       </c>
       <c r="H429" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I429" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
@@ -16114,10 +16114,10 @@
         <v>1203</v>
       </c>
       <c r="H430" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I430" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
@@ -16140,10 +16140,10 @@
         <v>1203</v>
       </c>
       <c r="H431" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="I431" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
@@ -16166,10 +16166,10 @@
         <v>1233</v>
       </c>
       <c r="H432" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I432" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16192,10 +16192,10 @@
         <v>1234</v>
       </c>
       <c r="H433" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I433" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16218,10 +16218,10 @@
         <v>1235</v>
       </c>
       <c r="H434" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I434" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16244,10 +16244,10 @@
         <v>1182</v>
       </c>
       <c r="H435" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I435" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16270,10 +16270,10 @@
         <v>1236</v>
       </c>
       <c r="H436" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I436" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16296,10 +16296,10 @@
         <v>1237</v>
       </c>
       <c r="H437" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I437" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16322,10 +16322,10 @@
         <v>1238</v>
       </c>
       <c r="H438" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="I438" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16348,10 +16348,10 @@
         <v>1239</v>
       </c>
       <c r="H439" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I439" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16374,10 +16374,10 @@
         <v>1240</v>
       </c>
       <c r="H440" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I440" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16400,10 +16400,10 @@
         <v>1241</v>
       </c>
       <c r="H441" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I441" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16426,10 +16426,10 @@
         <v>1242</v>
       </c>
       <c r="H442" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I442" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16452,16 +16452,16 @@
         <v>1183</v>
       </c>
       <c r="H443" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="I443" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K443" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="L443" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16484,10 +16484,10 @@
         <v>1182</v>
       </c>
       <c r="H444" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I444" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16510,10 +16510,10 @@
         <v>1243</v>
       </c>
       <c r="H445" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I445" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16536,10 +16536,10 @@
         <v>1244</v>
       </c>
       <c r="H446" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="I446" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16562,10 +16562,10 @@
         <v>1245</v>
       </c>
       <c r="H447" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I447" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16588,10 +16588,10 @@
         <v>1246</v>
       </c>
       <c r="H448" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I448" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16617,10 +16617,10 @@
         <v>1247</v>
       </c>
       <c r="H449" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I449" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16643,16 +16643,16 @@
         <v>1248</v>
       </c>
       <c r="H450" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I450" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K450" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="L450" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16675,22 +16675,22 @@
         <v>1248</v>
       </c>
       <c r="H451" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I451" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="K451" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L451" t="s">
+        <v>1412</v>
+      </c>
+      <c r="M451" t="s">
         <v>1366</v>
       </c>
-      <c r="L451" t="s">
-        <v>1419</v>
-      </c>
-      <c r="M451" t="s">
-        <v>1368</v>
-      </c>
       <c r="N451" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16713,10 +16713,10 @@
         <v>1203</v>
       </c>
       <c r="H452" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="I452" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16739,10 +16739,10 @@
         <v>1249</v>
       </c>
       <c r="H453" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I453" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16765,10 +16765,10 @@
         <v>1250</v>
       </c>
       <c r="H454" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I454" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16791,10 +16791,10 @@
         <v>1182</v>
       </c>
       <c r="H455" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I455" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16817,10 +16817,10 @@
         <v>1251</v>
       </c>
       <c r="H456" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I456" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16843,10 +16843,10 @@
         <v>1182</v>
       </c>
       <c r="H457" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I457" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16869,10 +16869,10 @@
         <v>1205</v>
       </c>
       <c r="H458" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I458" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16895,10 +16895,10 @@
         <v>1203</v>
       </c>
       <c r="H459" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="I459" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16921,10 +16921,10 @@
         <v>1220</v>
       </c>
       <c r="H460" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I460" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16947,10 +16947,10 @@
         <v>1203</v>
       </c>
       <c r="H461" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I461" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16973,10 +16973,10 @@
         <v>1252</v>
       </c>
       <c r="H462" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I462" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16999,10 +16999,10 @@
         <v>1253</v>
       </c>
       <c r="H463" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I463" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -17025,10 +17025,10 @@
         <v>1254</v>
       </c>
       <c r="H464" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I464" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17051,10 +17051,10 @@
         <v>1255</v>
       </c>
       <c r="H465" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I465" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17077,10 +17077,10 @@
         <v>1203</v>
       </c>
       <c r="H466" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I466" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17103,10 +17103,10 @@
         <v>1203</v>
       </c>
       <c r="H467" t="s">
-        <v>1371</v>
+        <v>1431</v>
       </c>
       <c r="I467" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17129,10 +17129,10 @@
         <v>1203</v>
       </c>
       <c r="H468" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I468" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
